--- a/Texts/Сюжетные сцены/Постгейм.xlsx
+++ b/Texts/Сюжетные сцены/Постгейм.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10925" uniqueCount="8968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11297" uniqueCount="9286">
   <si>
     <t>Обозначение сцены словами</t>
   </si>
@@ -26923,6 +26923,960 @@
   </si>
   <si>
     <t>[CN]Äàçå óå, œóï çåìàýó\nâñåäéóû äñôãéí...</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/s23p0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey! You two!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huff...puff…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What\'s up, [CS:N]Chatot[CR]?[K] What\'s the\nbig hurry?</t>
+  </si>
+  <si>
+    <t>65, 69, 74</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huff-huff...[K] The beach...[K]\nAt the beach…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is there something down at\nthe beach?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Manaphy[CR]![K] [CS:N]Manaphy[CR] came back!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?![K] [CS:N]Manaphy[CR]...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You mean the [CS:N]Manaphy[CR] we\nlooked after?!</t>
+  </si>
+  <si>
+    <t>127, 131, 135</t>
+  </si>
+  <si>
+    <t>141, 145, 149</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s him![K] That\'s the one!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hurry! To the beach!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй! Вы двое!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ухх... Ухх...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что случилось, [CS:N]Чатот[CR]?[K]\nЧто за спешка?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ухх-ухх...[K] Пляж...[K] На пляже...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что-то случилось на пляже?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Манафи[CR]![K] [CS:N]Манафи[CR] вернулся!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот самый [CS:N]Манафи[CR], за\nкоторым мы ухаживали?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это он![K] Он самый!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скорее! На пляж!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê! Âú äâïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôöö... Ôöö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï òìôœéìïòû, [CS:N]Œàóïó[CR]?[K]\nŒóï èà òðåšëà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôöö-ôöö...[K] Ðìÿç...[K] Îà ðìÿçå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï-óï òìôœéìïòû îà ðìÿçå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàîàõé[CR]![K] [CS:N]Íàîàõé[CR] âåñîôìòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïó òàíúê [CS:N]Íàîàõé[CR], èà\nëïóïñúí íú ôöàçéâàìé?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ïî![K] Ïî òàíúê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñåå! Îà ðìÿç!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?![K] [CS:N]Манафи[CR]?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?![K] [CS:N]Íàîàõé[CR]?..</t>
+  </si>
+  <si>
+    <t>Возвращение Манафи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Manaphy[CR]…</t>
+  </si>
+  <si>
+    <t>SCRIPT/D01P11A/s23p0102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'re really...[K]that little\n[CS:N]Manaphy[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yup, yup!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I grew big in the sea!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s all...[K] It\'s all because of you,\n[hero] and [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh![K] You remembered us!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Of course! I didn\'t forget you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not once...[K] Not ever…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I missed you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Манафи[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, да!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я вырос в море!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всё...[K] Всё благодаря вам,\n[hero] и [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой![K] Ты вспомнил нас!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Конечно! Я вас не забывал!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ни разу...[K] Никогда...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я скучал по вам!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Íàîàõé[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà, äà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âúñïò â íïñå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòæ...[K] Âòæ áìàãïäàñÿ âàí,\n[hero] é [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê![K] Óú âòðïíîéì îàò!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïîåœîï! Ÿ âàò îå èàáúâàì!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îé ñàèô...[K] Îéëïãäà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òëôœàì ðï âàí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты и правда...[K] Тот самый\nмалютка [CS:N]Манафи[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú é ðñàâäà...[K] Óïó òàíúê\níàìýóëà [CS:N]Íàîàõé[CR]?</t>
+  </si>
+  <si>
+    <t>SCRIPT/H02P99A/s23p0103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wow...[K]I remember this place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hatched here, didn\'t I?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yes, you\'re right.[K] This is where \nwe came to know each other.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m surprised you still\nremember that.</t>
+  </si>
+  <si>
+    <t>48, 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We [CS:N]Manaphy[CR] have the ability to\nremember where we hatched. So I\'ve been told.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After we grow up in the sea, we\ngo back to where we hatched by instinct.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr. [CS:N]Walrein[CR] taught me that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s impressive!</t>
+  </si>
+  <si>
+    <t>75, 79, 83</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is where I was hatched…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s why I felt the urge to\ncome back here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well then...[K] Now that you\'ve\nreturned, what will you do now, [CS:N]Manaphy[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I was told that I have to decide\nthat on my own.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, um... So, uh...[K] I thought\nreally hard about this and other things…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'d like to return the favor,\n[hero] and [partner]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don\'t you travel and explore all\nover the world?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I really wish I could help you\nwhen you go out on your adventures…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So, um...[K] Uh...[K] May I please be a\nmember of Team [team:]...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D-don\'t worry![K] I\'m grown up!\nI won\'t get sick like before…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]You don\'t...[K]want me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urk...[K] Of course we want you\nto stay with us![K] Right, [hero]?</t>
+  </si>
+  <si>
+    <t>Of course!</t>
+  </si>
+  <si>
+    <t>No!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What are you saying,\n[hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You must be all addled from\nbeing so happy! Snap out of it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Really?[K] Really, I can?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yay! I did it!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll do my best to make you\nproud, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If you need me, please call me\nat the Assembly!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll come running!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вау...[K] Я помню это место.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь я вылупился, верно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, так и есть.[K] Именно\nздесь мы познакомились друг с другом.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удивлён, что ты это\nпомнишь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удивлена, что ты это\nпомнишь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы, [CS:N]Манафи[CR], можем помнить, где мы\nвылупляемся. Так мне сказали.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> После того, как мы вырастаем в\nморе, мы инстинктивно возвращаемся на\nместо вылупления.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так сказал мне Мистер [CS:N]Валрэйн[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Невероятно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь я вылупился...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И поэтому почувствовал нужду\nвернуться сюда.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тогда...[K] Теперь, когда ты вернулся,\nчто ты будешь делать, [CS:N]Манафи[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне сказали, что я сам должен\nвсё решить.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, эм... Так, эм...[K] Я очень долго\nдумал о том и о сём...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я хочу вам отплатить, [hero]\nи [partner]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы ведь путешествуете и\nисследуете весь мир?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я очень хочу, чтобы я мог помочь\nвам в ваших приключениях...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, эм...[K] Эм...[K] Могу ли я\nбыть членом Команды [team:]?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Н-не переживайте![K] Я вырос!\nЯ больше не заболею, как тогда...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Вы не...[K]возьмёте меня?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух...[K] Конечно же, мы хотим,\nчтобы ты остался с нами![K]\nВерно, [hero]?</t>
+  </si>
+  <si>
+    <t>Конечно!</t>
+  </si>
+  <si>
+    <t>Нет!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что ты говоришь,\n[hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Должно быть, ты просто\nсходишь с ума от счастья! Приди в себя!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Правда?[K] Правда можно?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ура! Здорово!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ты будешь мной гордиться,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если я тебе понадоблюсь, вызови\nменя на Сборном Пункте!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я мигом прилечу!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_NEW_FRIEND] вступает в команду!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàô...[K] Ÿ ðïíîý üóï íåòóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû ÿ âúìôðéìòÿ, âåñîï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äà, óàë é åòóû.[K] Éíåîîï\nèäåòû íú ðïèîàëïíéìéòû äñôã ò äñôãïí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäéâìæî, œóï óú üóï\nðïíîéšû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäéâìåîà, œóï óú üóï\nðïíîéšû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú, [CS:N]Íàîàõé[CR], íïçåí ðïíîéóû, ãäå íú\nâúìôðìÿåíòÿ. Óàë íîå òëàèàìé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìå óïãï, ëàë íú âúñàòóàåí â\níïñå, íú éîòóéîëóéâîï âïèâñàþàåíòÿ îà\níåòóï âúìôðìåîéÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë òëàèàì íîå Íéòóåñ [CS:N]Âàìñüêî[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåâåñïÿóîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû ÿ âúìôðéìòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É ðïüóïíô ðïœôâòóâïâàì îôçäô\nâåñîôóûòÿ òýäà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïãäà...[K] Óåðåñû, ëïãäà óú âåñîôìòÿ,\nœóï óú áôäåšû äåìàóû, [CS:N]Íàîàõé[CR]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå òëàèàìé, œóï ÿ òàí äïìçåî\nâòæ ñåšéóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, üí... Óàë, üí...[K] Ÿ ïœåîû äïìãï\näôíàì ï óïí é ï òæí...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ öïœô âàí ïóðìàóéóû, [hero]\né [partner]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú âåäû ðôóåšåòóâôåóå é\néòòìåäôåóå âåòû íéñ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ïœåîû öïœô, œóïáú ÿ íïã ðïíïœû\nâàí â âàšéö ðñéëìýœåîéÿö...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, üí...[K] Üí...[K] Íïãô ìé ÿ\náúóû œìåîïí Ëïíàîäú [team:]?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Î-îå ðåñåçéâàêóå![K] Ÿ âúñïò!\nŸ áïìûšå îå èàáïìåý, ëàë óïãäà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...[K]Âú îå...[K]âïèûíæóå íåîÿ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö...[K] Ëïîåœîï çå, íú öïóéí,\nœóïáú óú ïòóàìòÿ ò îàíé![K]\nÂåñîï, [hero]?</t>
+  </si>
+  <si>
+    <t>Ëïîåœîï!</t>
+  </si>
+  <si>
+    <t>Îåó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï óú ãïâïñéšû,\n[hero]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïìçîï áúóû, óú ðñïòóï\nòöïäéšû ò ôíà ïó òœàòóûÿ! Ðñéäé â òåáÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñàâäà?[K] Ðñàâäà íïçîï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôñà! Èäïñïâï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óú áôäåšû íîïê ãïñäéóûòÿ,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé ÿ óåáå ðïîàäïáìýòû, âúèïâé\níåîÿ îà Òáïñîïí Ðôîëóå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ íéãïí ðñéìåœô!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_NEW_FRIEND] âòóôðàåó â ëïíàîäô!</t>
+  </si>
+  <si>
+    <t>SCRIPT/H02P99A/s11p0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh! [hero]! [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good morning! Are you awake?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hm? Who could that be?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох! [hero]! [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Доброе утро! Вы не спите?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хм? Кто бы это мог быть?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö! [hero]! [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñïå ôóñï! Âú îå òðéóå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öí? Ëóï áú üóï íïã áúóû?</t>
+  </si>
+  <si>
+    <t>Манафи будит вас</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Hi, [hero] and\n[partner]!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Good morning!</t>
+  </si>
+  <si>
+    <t>SCRIPT/H01P99A/s11p0102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, it\'s [c_name:NPC_MANAFI]!\nGood morning!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What brings you back here so\nearly in the morning!</t>
+  </si>
+  <si>
+    <t>83, 87, 91</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Well, um, I was on my daily\nmorning travels…</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: And I found a really great place!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A really great place?</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Yep, yep! It has crystal clear\nwater and a white-sand beach…</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: And it\'s got plenty of totally\nyummi Gummis!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: And the place is named the\n[CS:P]Marine Resort[CR]! It\'s a Pokémon paradise!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The [CS:P]Marine Resort[CR]![K]\nA Pokémon paradise?!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: I couldn\'t wait to come tell you\nand [hero] right away.</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: So I cut my daily trip short\nand came straight here to tell you!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: I\'ll show you where it is.\nCan you open your map for me?</t>
+  </si>
+  <si>
+    <t>[CN]You can now go to\n[CN]the [CS:P]Marine Resort[CR]!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Let\'s go play there\ntogether sometime!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: OK, bye!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Привет, [hero]\nи [partner]!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: С добрым утром!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Эй, это же [c_name:NPC_MANAFI]!\nС добрым утром!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что ты делаешь здесь в\nтакую рань?</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Ну, эм, недавно я\nбыл на своей ежедневной прогулке...</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: И нашёл невероятно\nпрекрасное место!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Невероятно прекрасное\nместо?</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Да, да!\nТам есть кристально чистая вода и пляж с\nбелоснежным песком...</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Кроме того, там\nможно найти множество вкусного Желе!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Это [CS:P]Морской Пляж[CR]!\nРай для Покемонов!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Мне не терпелось\nрассказать вам об этом месте.</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Поэтому я прервал\nпрогулку и пришёл к вам!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Я покажу вам, где\nон. Можете открыть карту?</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Давайте как-нибудь\nтам вместе поиграем!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Пока!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Ðñéâåó, [hero]\né [partner]!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Ò äïáñúí ôóñïí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üê, üóï çå [c_name:NPC_MANAFI]!\nÒ äïáñúí ôóñïí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï óú äåìàåšû èäåòû â\nóàëôý ñàîû?</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Îô, üí, îåäàâîï ÿ\náúì îà òâïåê åçåäîåâîïê ðñïãôìëå...</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: É îàšæì îåâåñïÿóîï\nðñåëñàòîïå íåòóï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåâåñïÿóîï ðñåëñàòîïå\níåòóï?</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Äà, äà!\nÓàí åòóû ëñéòóàìûîï œéòóàÿ âïäà é ðìÿç ò\náåìïòîåçîúí ðåòëïí...</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Ëñïíå óïãï, óàí\níïçîï îàêóé íîïçåòóâï âëôòîïãï Çåìå!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Üóï [CS:P]Íïñòëïê Ðìÿç[CR]!\nÑàê äìÿ Ðïëåíïîïâ!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Íîå îå óåñðåìïòû\nñàòòëàèàóû âàí ïá üóïí íåòóå.</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Ðïüóïíô ÿ ðñåñâàì\nðñïãôìëô é ðñéšæì ë âàí!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Ÿ ðïëàçô âàí, ãäå\nïî. Íïçåóå ïóëñúóû ëàñóô?</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Äàâàêóå ëàë-îéáôäû\nóàí âíåòóå ðïéãñàåí!</t>
+  </si>
+  <si>
+    <t>[c_name:NPC_MANAFI]: Ðïëà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Морской Пляж[CR]?[K] Рай для\nПокемонов?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:P]Íïñòëïê Ðìÿç[CR]?[K] Ñàê äìÿ\nÐïëåíïîïâ?!</t>
+  </si>
+  <si>
+    <t>[CN]Теперь вы можете отправиться\n[CN]на [CS:P]Морской Пляж[CR]!</t>
+  </si>
+  <si>
+    <t>[CN]Óåðåñû âú íïçåóå ïóðñàâéóûòÿ\n[CN]îà [CS:P]Íïñòëïê Ðìÿç[CR]!</t>
+  </si>
+  <si>
+    <t>208, 212, 216</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Of course!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïîåœîï!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/m00p1401.ssb</t>
+  </si>
+  <si>
+    <t>Вы пришли на главную площадь</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh! [K][hero]! [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey, what\'s going on over here?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We went to [CS:P]Luminous Spring[CR]\nrecently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Look...[K] You know how you can\'t\nreally tell us apart now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, because of that, I\'d like to\nevolve again…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So we went back to\n[CS:P]Luminous Spring[CR] to see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So we had no choice but to go\nthere and prove it…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Of course, we can\'t evolve.[K]\n...But that\'s what I\'ve been saying all along.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How many times do I have to\ntell that we can\'t evolve past this form?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But he just doesn\'t listen to me,\nno matter how many times I tell him…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Something about the place feels\ndifferent...[K]from the last time we went…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Different...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yeah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The atmosphere is different...[K]\nLike a fog has been lifted, or something…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I can\'t really explain it...[K]\nBut it\'s like it\'s a different [CS:P]Luminous Spring[CR]\nthan before…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I felt that too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Just looking at it,\nnothing\'s changed…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But there\'s something different.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> And...[K]I just remembered\nsomething…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You...[K] You tried to evolve there\nbefore, didn\'t you? But you couldn\'t?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If I recall correctly, it was said\nyou couldn\'t evolve for some reason…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But since something seems to be\ndifferent about [CS:P]Luminous Spring[CR]…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maybe whatever was blocking\nyou is gone...[K] That is…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I think that you might be\nable to evolve now, if you want to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Really? [K]We can evolve now?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, I don\'t really know if\nyou can…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m just saying that I think it\nmight now be possible…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But...[K] It would be worth\ngiving it a shot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So if you want to evolve, then\nhead back over to [CS:P]Luminous Spring[CR] and see.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We just wanted to let you know.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> See you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ох![K] [hero]! [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Привет, что такое?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Недавно мы ходили к [CS:P]Сияющему\nИсточнику[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Послушайте...[K] Вы же знаете, что\nнас теперь трудно различить?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, из-за этого, я снова хотел\nэволюционировать...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому мы вернулись к [CS:P]Сияющему\nИсточнику[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Сколько раз я должен говорить,\nчто дальше мы не сможем эволюционировать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но он меня всё никак не слушает,\nсколько бы раз я не твердил ему...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому мы были вынуждены туда\nпойти...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Конечно же, мы не можем\nэволюционировать.[K] ...Это то, что я всегда\nговорил.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что-то поменялось в этом месте...[K]\nС прошлого раза...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поменялось?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Атмосфера поменялась...[K] Словно\nтуман рассеялся или около того...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я не совсем могу это объяснить...[K]\nНо, кажется, будто [CS:P]Сияющий Источник[CR]\nизменился...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я тоже это почувствовал.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> На первый взгляд, ничего не\nпоменялось...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но теперь там всё по другому.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И...[K] Я кое-что вспомнил...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы...[K] Пытались там\nэволюционировать, верно? Но не могли?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если я правильно помню, вы\nсказали, что почему-то не можете\nэволюционировать...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но с тех пор, как мне кажется,\nна [CS:P]Сияющем Источнике[CR] всё изменилось...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Возможно, то, что вас\nостанавливало, пропало...[K] И поэтому...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я думаю, что теперь, если вы\nзахотите, вы сможете эволюционировать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Правда?[K]\nМы сможем эволюционировать?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ну, я не совсем уверен, что\nможете...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я просто хочу сказать, что это\nвозможно получится сделать...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но...[K] Стоит попытаться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поэтому, если захотите\nэволюционировать, вернитесь к [CS:P]Сияющему\nИсточнику[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Просто хотели дать вам знать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïö![K] [hero]! [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéâåó, œóï óàëïå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îåäàâîï íú öïäéìé ë [CS:P]Òéÿýþåíô\nÉòóïœîéëô[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïòìôšàêóå...[K] Âú çå èîàåóå, œóï\nîàò óåðåñû óñôäîï ñàèìéœéóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, éè-èà üóïãï, ÿ òîïâà öïóåì\nüâïìýøéïîéñïâàóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô íú âåñîôìéòû ë [CS:P]Òéÿýþåíô\nÉòóïœîéëô[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïìûëï ñàè ÿ äïìçåî ãïâïñéóû,\nœóï äàìûšå íú îå òíïçåí üâïìýøéïîéñïâàóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ïî íåîÿ âòæ îéëàë îå òìôšàåó,\nòëïìûëï áú ñàè ÿ îå óâåñäéì åíô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô íú áúìé âúîôçäåîú óôäà\nðïêóé...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïîåœîï çå, íú îå íïçåí\nüâïìýøéïîéñïâàóû.[K] ...Üóï óï, œóï ÿ âòåãäà\nãïâïñéì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï-óï ðïíåîÿìïòû â üóïí íåòóå...[K]\nÒ ðñïšìïãï ñàèà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïíåîÿìïòû?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àóíïòõåñà ðïíåîÿìàòû...[K] Òìïâîï\nóôíàî ñàòòåÿìòÿ éìé ïëïìï óïãï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îå òïâòåí íïãô üóï ïáùÿòîéóû...[K]\nÎï, ëàçåóòÿ, áôäóï [CS:P]Òéÿýþéê Éòóïœîéë[CR]\néèíåîéìòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óïçå üóï ðïœôâòóâïâàì.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îà ðåñâúê âèãìÿä, îéœåãï îå\nðïíåîÿìïòû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï óåðåñû óàí âòæ ðï äñôãïíô.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É...[K] Ÿ ëïå-œóï âòðïíîéì...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú...[K] Ðúóàìéòû óàí\nüâïìýøéïîéñïâàóû, âåñîï? Îï îå íïãìé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé ÿ ðñàâéìûîï ðïíîý, âú\nòëàèàìé, œóï ðïœåíô-óï îå íïçåóå\nüâïìýøéïîéñïâàóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ò óåö ðïñ, ëàë íîå ëàçåóòÿ,\nîà [CS:P]Òéÿýþåí Éòóïœîéëå[CR] âòæ éèíåîéìïòû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïèíïçîï, óï, œóï âàò\nïòóàîàâìéâàìï, ðñïðàìï...[K] É ðïüóïíô...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ äôíàý, œóï óåðåñû, åòìé âú\nèàöïóéóå, âú òíïçåóå üâïìýøéïîéñïâàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñàâäà?[K]\nÍú òíïçåí üâïìýøéïîéñïâàóû?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îô, ÿ îå òïâòåí ôâåñåî, œóï\níïçåóå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðñïòóï öïœô òëàèàóû, œóï üóï\nâïèíïçîï ðïìôœéóòÿ òäåìàóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï...[K] Òóïéó ðïðúóàóûòÿ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïüóïíô, åòìé èàöïóéóå\nüâïìýøéïîéñïâàóû, âåñîéóåòû ë [CS:P]Òéÿýþåíô\nÉòóïœîéëô[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïòóï öïóåìé äàóû âàí èîàóû.</t>
   </si>
 </sst>
 </file>
@@ -27424,7 +28378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -27813,6 +28767,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -28093,10 +29053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2964"/>
+  <dimension ref="A1:H3070"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2960" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2974" sqref="D2974"/>
+    <sheetView tabSelected="1" topLeftCell="A3062" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3074" sqref="D3074"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76396,6 +77356,1688 @@
         <v>8948</v>
       </c>
     </row>
+    <row r="2965" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2965" s="30" t="s">
+        <v>9002</v>
+      </c>
+      <c r="B2965" s="9" t="s">
+        <v>8968</v>
+      </c>
+      <c r="C2965" s="9">
+        <v>14</v>
+      </c>
+      <c r="D2965" s="10" t="s">
+        <v>8969</v>
+      </c>
+      <c r="E2965" s="10" t="s">
+        <v>8982</v>
+      </c>
+      <c r="F2965" s="10" t="s">
+        <v>8991</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2966" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2966" s="9">
+        <v>50</v>
+      </c>
+      <c r="D2966" s="10" t="s">
+        <v>8970</v>
+      </c>
+      <c r="E2966" s="10" t="s">
+        <v>8983</v>
+      </c>
+      <c r="F2966" s="10" t="s">
+        <v>8992</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2967" s="101"/>
+      <c r="B2967" s="94"/>
+      <c r="C2967" s="9" t="s">
+        <v>8972</v>
+      </c>
+      <c r="D2967" s="10" t="s">
+        <v>8971</v>
+      </c>
+      <c r="E2967" s="10" t="s">
+        <v>8984</v>
+      </c>
+      <c r="F2967" s="10" t="s">
+        <v>8993</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2968" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2968" s="9">
+        <v>87</v>
+      </c>
+      <c r="D2968" s="10" t="s">
+        <v>8973</v>
+      </c>
+      <c r="E2968" s="10" t="s">
+        <v>8985</v>
+      </c>
+      <c r="F2968" s="10" t="s">
+        <v>8994</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2969" s="101"/>
+      <c r="B2969" s="94"/>
+      <c r="C2969" s="9" t="s">
+        <v>3064</v>
+      </c>
+      <c r="D2969" s="10" t="s">
+        <v>8974</v>
+      </c>
+      <c r="E2969" s="10" t="s">
+        <v>8986</v>
+      </c>
+      <c r="F2969" s="10" t="s">
+        <v>8995</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2970" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2970" s="9">
+        <v>112</v>
+      </c>
+      <c r="D2970" s="10" t="s">
+        <v>8975</v>
+      </c>
+      <c r="E2970" s="10" t="s">
+        <v>8987</v>
+      </c>
+      <c r="F2970" s="10" t="s">
+        <v>8996</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2971" s="101"/>
+      <c r="B2971" s="94"/>
+      <c r="C2971" s="9" t="s">
+        <v>8978</v>
+      </c>
+      <c r="D2971" s="10" t="s">
+        <v>8976</v>
+      </c>
+      <c r="E2971" s="10" t="s">
+        <v>9000</v>
+      </c>
+      <c r="F2971" s="10" t="s">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2972" s="101"/>
+      <c r="B2972" s="94"/>
+      <c r="C2972" s="9" t="s">
+        <v>8979</v>
+      </c>
+      <c r="D2972" s="10" t="s">
+        <v>8977</v>
+      </c>
+      <c r="E2972" s="10" t="s">
+        <v>8988</v>
+      </c>
+      <c r="F2972" s="10" t="s">
+        <v>8997</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2973" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2973" s="9">
+        <v>160</v>
+      </c>
+      <c r="D2973" s="10" t="s">
+        <v>8980</v>
+      </c>
+      <c r="E2973" s="10" t="s">
+        <v>8989</v>
+      </c>
+      <c r="F2973" s="10" t="s">
+        <v>8998</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2974" s="28"/>
+      <c r="C2974" s="9">
+        <v>163</v>
+      </c>
+      <c r="D2974" s="10" t="s">
+        <v>8981</v>
+      </c>
+      <c r="E2974" s="10" t="s">
+        <v>8990</v>
+      </c>
+      <c r="F2974" s="10" t="s">
+        <v>8999</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2975" s="130"/>
+      <c r="B2975" s="19"/>
+      <c r="C2975" s="20">
+        <v>174</v>
+      </c>
+      <c r="D2975" s="21" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E2975" s="21" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F2975" s="21" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2976" s="101"/>
+      <c r="B2976" s="94" t="s">
+        <v>9004</v>
+      </c>
+      <c r="C2976" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="D2976" s="10" t="s">
+        <v>9003</v>
+      </c>
+      <c r="E2976" s="10" t="s">
+        <v>9013</v>
+      </c>
+      <c r="F2976" s="10" t="s">
+        <v>9021</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2977" s="101"/>
+      <c r="B2977" s="94"/>
+      <c r="C2977" s="9" t="s">
+        <v>8978</v>
+      </c>
+      <c r="D2977" s="10" t="s">
+        <v>3440</v>
+      </c>
+      <c r="E2977" s="10" t="s">
+        <v>3454</v>
+      </c>
+      <c r="F2977" s="10" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2978" s="101"/>
+      <c r="B2978" s="94"/>
+      <c r="C2978" s="9" t="s">
+        <v>7028</v>
+      </c>
+      <c r="D2978" s="10" t="s">
+        <v>9005</v>
+      </c>
+      <c r="E2978" s="10" t="s">
+        <v>9029</v>
+      </c>
+      <c r="F2978" s="10" t="s">
+        <v>9030</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2979" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C2979" s="9">
+        <v>182</v>
+      </c>
+      <c r="D2979" s="10" t="s">
+        <v>9006</v>
+      </c>
+      <c r="E2979" s="10" t="s">
+        <v>9014</v>
+      </c>
+      <c r="F2979" s="10" t="s">
+        <v>9022</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2980" s="28"/>
+      <c r="C2980" s="9">
+        <v>185</v>
+      </c>
+      <c r="D2980" s="10" t="s">
+        <v>9007</v>
+      </c>
+      <c r="E2980" s="10" t="s">
+        <v>9015</v>
+      </c>
+      <c r="F2980" s="10" t="s">
+        <v>9023</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2981" s="28"/>
+      <c r="C2981" s="9">
+        <v>188</v>
+      </c>
+      <c r="D2981" s="10" t="s">
+        <v>9008</v>
+      </c>
+      <c r="E2981" s="10" t="s">
+        <v>9016</v>
+      </c>
+      <c r="F2981" s="10" t="s">
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2982" s="101"/>
+      <c r="B2982" s="94"/>
+      <c r="C2982" s="9" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D2982" s="10" t="s">
+        <v>9009</v>
+      </c>
+      <c r="E2982" s="10" t="s">
+        <v>9017</v>
+      </c>
+      <c r="F2982" s="10" t="s">
+        <v>9025</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2983" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C2983" s="9">
+        <v>216</v>
+      </c>
+      <c r="D2983" s="10" t="s">
+        <v>9010</v>
+      </c>
+      <c r="E2983" s="10" t="s">
+        <v>9018</v>
+      </c>
+      <c r="F2983" s="10" t="s">
+        <v>9026</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2984" s="28"/>
+      <c r="C2984" s="9">
+        <v>219</v>
+      </c>
+      <c r="D2984" s="10" t="s">
+        <v>9011</v>
+      </c>
+      <c r="E2984" s="10" t="s">
+        <v>9019</v>
+      </c>
+      <c r="F2984" s="10" t="s">
+        <v>9027</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2985" s="89"/>
+      <c r="B2985" s="20"/>
+      <c r="C2985" s="20">
+        <v>222</v>
+      </c>
+      <c r="D2985" s="21" t="s">
+        <v>9012</v>
+      </c>
+      <c r="E2985" s="21" t="s">
+        <v>9020</v>
+      </c>
+      <c r="F2985" s="21" t="s">
+        <v>9028</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2986" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B2986" s="9" t="s">
+        <v>9031</v>
+      </c>
+      <c r="C2986" s="9">
+        <v>19</v>
+      </c>
+      <c r="D2986" s="10" t="s">
+        <v>9032</v>
+      </c>
+      <c r="E2986" s="10" t="s">
+        <v>9063</v>
+      </c>
+      <c r="F2986" s="10" t="s">
+        <v>9094</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2987" s="28"/>
+      <c r="C2987" s="9">
+        <v>27</v>
+      </c>
+      <c r="D2987" s="10" t="s">
+        <v>9033</v>
+      </c>
+      <c r="E2987" s="10" t="s">
+        <v>9064</v>
+      </c>
+      <c r="F2987" s="10" t="s">
+        <v>9095</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2988" s="101"/>
+      <c r="B2988" s="94"/>
+      <c r="C2988" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D2988" s="10" t="s">
+        <v>9034</v>
+      </c>
+      <c r="E2988" s="10" t="s">
+        <v>9065</v>
+      </c>
+      <c r="F2988" s="10" t="s">
+        <v>9096</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2989" s="101"/>
+      <c r="C2989" s="9" t="s">
+        <v>9036</v>
+      </c>
+      <c r="D2989" s="10" t="s">
+        <v>9035</v>
+      </c>
+      <c r="E2989" s="10" t="s">
+        <v>9066</v>
+      </c>
+      <c r="F2989" s="10" t="s">
+        <v>9097</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2990" s="94"/>
+      <c r="C2990" s="9">
+        <v>56</v>
+      </c>
+      <c r="D2990" s="10" t="s">
+        <v>9035</v>
+      </c>
+      <c r="E2990" s="10" t="s">
+        <v>9067</v>
+      </c>
+      <c r="F2990" s="10" t="s">
+        <v>9098</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A2991" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C2991" s="9">
+        <v>62</v>
+      </c>
+      <c r="D2991" s="10" t="s">
+        <v>9037</v>
+      </c>
+      <c r="E2991" s="10" t="s">
+        <v>9068</v>
+      </c>
+      <c r="F2991" s="10" t="s">
+        <v>9099</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A2992" s="28"/>
+      <c r="C2992" s="9">
+        <v>65</v>
+      </c>
+      <c r="D2992" s="10" t="s">
+        <v>9038</v>
+      </c>
+      <c r="E2992" s="10" t="s">
+        <v>9069</v>
+      </c>
+      <c r="F2992" s="10" t="s">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2993" s="28"/>
+      <c r="C2993" s="9">
+        <v>68</v>
+      </c>
+      <c r="D2993" s="10" t="s">
+        <v>9039</v>
+      </c>
+      <c r="E2993" s="10" t="s">
+        <v>9070</v>
+      </c>
+      <c r="F2993" s="10" t="s">
+        <v>9101</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2994" s="101"/>
+      <c r="B2994" s="94"/>
+      <c r="C2994" s="9" t="s">
+        <v>9041</v>
+      </c>
+      <c r="D2994" s="10" t="s">
+        <v>9040</v>
+      </c>
+      <c r="E2994" s="10" t="s">
+        <v>9071</v>
+      </c>
+      <c r="F2994" s="10" t="s">
+        <v>9102</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2995" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C2995" s="9">
+        <v>89</v>
+      </c>
+      <c r="D2995" s="10" t="s">
+        <v>9042</v>
+      </c>
+      <c r="E2995" s="10" t="s">
+        <v>9072</v>
+      </c>
+      <c r="F2995" s="10" t="s">
+        <v>9103</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2996" s="28"/>
+      <c r="C2996" s="9">
+        <v>92</v>
+      </c>
+      <c r="D2996" s="10" t="s">
+        <v>9043</v>
+      </c>
+      <c r="E2996" s="10" t="s">
+        <v>9073</v>
+      </c>
+      <c r="F2996" s="10" t="s">
+        <v>9104</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A2997" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2997" s="9">
+        <v>97</v>
+      </c>
+      <c r="D2997" s="10" t="s">
+        <v>9044</v>
+      </c>
+      <c r="E2997" s="10" t="s">
+        <v>9074</v>
+      </c>
+      <c r="F2997" s="10" t="s">
+        <v>9105</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2998" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C2998" s="9">
+        <v>106</v>
+      </c>
+      <c r="D2998" s="10" t="s">
+        <v>9045</v>
+      </c>
+      <c r="E2998" s="10" t="s">
+        <v>9075</v>
+      </c>
+      <c r="F2998" s="10" t="s">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A2999" s="28"/>
+      <c r="C2999" s="9">
+        <v>114</v>
+      </c>
+      <c r="D2999" s="10" t="s">
+        <v>9046</v>
+      </c>
+      <c r="E2999" s="10" t="s">
+        <v>9076</v>
+      </c>
+      <c r="F2999" s="10" t="s">
+        <v>9107</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3000" s="28"/>
+      <c r="C3000" s="9">
+        <v>117</v>
+      </c>
+      <c r="D3000" s="10" t="s">
+        <v>9047</v>
+      </c>
+      <c r="E3000" s="10" t="s">
+        <v>9077</v>
+      </c>
+      <c r="F3000" s="10" t="s">
+        <v>9108</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3001" s="28"/>
+      <c r="C3001" s="9">
+        <v>120</v>
+      </c>
+      <c r="D3001" s="10" t="s">
+        <v>9048</v>
+      </c>
+      <c r="E3001" s="10" t="s">
+        <v>9078</v>
+      </c>
+      <c r="F3001" s="10" t="s">
+        <v>9109</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3002" s="28"/>
+      <c r="C3002" s="9">
+        <v>123</v>
+      </c>
+      <c r="D3002" s="10" t="s">
+        <v>9049</v>
+      </c>
+      <c r="E3002" s="10" t="s">
+        <v>9079</v>
+      </c>
+      <c r="F3002" s="10" t="s">
+        <v>9110</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3003" s="28"/>
+      <c r="C3003" s="9">
+        <v>126</v>
+      </c>
+      <c r="D3003" s="10" t="s">
+        <v>9050</v>
+      </c>
+      <c r="E3003" s="10" t="s">
+        <v>9080</v>
+      </c>
+      <c r="F3003" s="10" t="s">
+        <v>9111</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3004" s="28"/>
+      <c r="C3004" s="9">
+        <v>157</v>
+      </c>
+      <c r="D3004" s="10" t="s">
+        <v>9051</v>
+      </c>
+      <c r="E3004" s="10" t="s">
+        <v>9081</v>
+      </c>
+      <c r="F3004" s="10" t="s">
+        <v>9112</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3005" s="28"/>
+      <c r="C3005" s="9">
+        <v>178</v>
+      </c>
+      <c r="D3005" s="10" t="s">
+        <v>9052</v>
+      </c>
+      <c r="E3005" s="10" t="s">
+        <v>9082</v>
+      </c>
+      <c r="F3005" s="10" t="s">
+        <v>9113</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3006" s="101"/>
+      <c r="B3006" s="94"/>
+      <c r="C3006" s="9" t="s">
+        <v>5378</v>
+      </c>
+      <c r="D3006" s="10" t="s">
+        <v>9053</v>
+      </c>
+      <c r="E3006" s="10" t="s">
+        <v>9083</v>
+      </c>
+      <c r="F3006" s="10" t="s">
+        <v>9114</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3007" s="131"/>
+      <c r="C3007" s="9">
+        <v>215</v>
+      </c>
+      <c r="D3007" s="10" t="s">
+        <v>9054</v>
+      </c>
+      <c r="E3007" s="10" t="s">
+        <v>9084</v>
+      </c>
+      <c r="F3007" s="10" t="s">
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3008" s="131"/>
+      <c r="C3008" s="9">
+        <v>220</v>
+      </c>
+      <c r="D3008" s="10" t="s">
+        <v>9055</v>
+      </c>
+      <c r="E3008" s="10" t="s">
+        <v>9085</v>
+      </c>
+      <c r="F3008" s="10" t="s">
+        <v>9116</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3009" s="101"/>
+      <c r="B3009" s="94"/>
+      <c r="C3009" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="D3009" s="10" t="s">
+        <v>9056</v>
+      </c>
+      <c r="E3009" s="10" t="s">
+        <v>9086</v>
+      </c>
+      <c r="F3009" s="10" t="s">
+        <v>9117</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3010" s="101"/>
+      <c r="B3010" s="94"/>
+      <c r="C3010" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="D3010" s="10" t="s">
+        <v>9057</v>
+      </c>
+      <c r="E3010" s="10" t="s">
+        <v>9087</v>
+      </c>
+      <c r="F3010" s="10" t="s">
+        <v>9118</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3011" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C3011" s="9">
+        <v>293</v>
+      </c>
+      <c r="D3011" s="10" t="s">
+        <v>9058</v>
+      </c>
+      <c r="E3011" s="10" t="s">
+        <v>9088</v>
+      </c>
+      <c r="F3011" s="10" t="s">
+        <v>9119</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3012" s="28"/>
+      <c r="C3012" s="9">
+        <v>296</v>
+      </c>
+      <c r="D3012" s="10" t="s">
+        <v>9059</v>
+      </c>
+      <c r="E3012" s="10" t="s">
+        <v>9089</v>
+      </c>
+      <c r="F3012" s="10" t="s">
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3013" s="28"/>
+      <c r="C3013" s="9">
+        <v>330</v>
+      </c>
+      <c r="D3013" s="10" t="s">
+        <v>9060</v>
+      </c>
+      <c r="E3013" s="10" t="s">
+        <v>9090</v>
+      </c>
+      <c r="F3013" s="10" t="s">
+        <v>9121</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3014" s="28"/>
+      <c r="C3014" s="9">
+        <v>333</v>
+      </c>
+      <c r="D3014" s="10" t="s">
+        <v>9061</v>
+      </c>
+      <c r="E3014" s="10" t="s">
+        <v>9091</v>
+      </c>
+      <c r="F3014" s="10" t="s">
+        <v>9122</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3015" s="28"/>
+      <c r="C3015" s="9">
+        <v>336</v>
+      </c>
+      <c r="D3015" s="10" t="s">
+        <v>9062</v>
+      </c>
+      <c r="E3015" s="10" t="s">
+        <v>9092</v>
+      </c>
+      <c r="F3015" s="10" t="s">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3016" s="91"/>
+      <c r="B3016" s="17"/>
+      <c r="C3016" s="17">
+        <v>344</v>
+      </c>
+      <c r="D3016" s="18" t="s">
+        <v>4193</v>
+      </c>
+      <c r="E3016" s="18" t="s">
+        <v>9093</v>
+      </c>
+      <c r="F3016" s="18" t="s">
+        <v>9124</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3017" s="30" t="s">
+        <v>9135</v>
+      </c>
+      <c r="B3017" s="9" t="s">
+        <v>9125</v>
+      </c>
+      <c r="C3017" s="9">
+        <v>10</v>
+      </c>
+      <c r="D3017" s="10" t="s">
+        <v>9126</v>
+      </c>
+      <c r="E3017" s="10" t="s">
+        <v>9129</v>
+      </c>
+      <c r="F3017" s="10" t="s">
+        <v>9132</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3018" s="28"/>
+      <c r="C3018" s="9">
+        <v>25</v>
+      </c>
+      <c r="D3018" s="10" t="s">
+        <v>9127</v>
+      </c>
+      <c r="E3018" s="10" t="s">
+        <v>9130</v>
+      </c>
+      <c r="F3018" s="10" t="s">
+        <v>9133</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3019" s="130"/>
+      <c r="B3019" s="19"/>
+      <c r="C3019" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3019" s="21" t="s">
+        <v>9128</v>
+      </c>
+      <c r="E3019" s="21" t="s">
+        <v>9131</v>
+      </c>
+      <c r="F3019" s="21" t="s">
+        <v>9134</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3020" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B3020" s="9" t="s">
+        <v>9138</v>
+      </c>
+      <c r="C3020" s="9">
+        <v>51</v>
+      </c>
+      <c r="D3020" s="10" t="s">
+        <v>9136</v>
+      </c>
+      <c r="E3020" s="10" t="s">
+        <v>9155</v>
+      </c>
+      <c r="F3020" s="10" t="s">
+        <v>9170</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3021" s="28"/>
+      <c r="C3021" s="9">
+        <v>54</v>
+      </c>
+      <c r="D3021" s="10" t="s">
+        <v>9137</v>
+      </c>
+      <c r="E3021" s="10" t="s">
+        <v>9156</v>
+      </c>
+      <c r="F3021" s="10" t="s">
+        <v>9171</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3022" s="101"/>
+      <c r="B3022" s="94"/>
+      <c r="C3022" s="9" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D3022" s="10" t="s">
+        <v>9139</v>
+      </c>
+      <c r="E3022" s="10" t="s">
+        <v>9157</v>
+      </c>
+      <c r="F3022" s="10" t="s">
+        <v>9172</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3023" s="101"/>
+      <c r="B3023" s="94"/>
+      <c r="C3023" s="9" t="s">
+        <v>9141</v>
+      </c>
+      <c r="D3023" s="10" t="s">
+        <v>9140</v>
+      </c>
+      <c r="E3023" s="10" t="s">
+        <v>9158</v>
+      </c>
+      <c r="F3023" s="10" t="s">
+        <v>9173</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3024" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C3024" s="9">
+        <v>102</v>
+      </c>
+      <c r="D3024" s="10" t="s">
+        <v>9142</v>
+      </c>
+      <c r="E3024" s="10" t="s">
+        <v>9159</v>
+      </c>
+      <c r="F3024" s="10" t="s">
+        <v>9174</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3025" s="28"/>
+      <c r="C3025" s="9">
+        <v>105</v>
+      </c>
+      <c r="D3025" s="10" t="s">
+        <v>9143</v>
+      </c>
+      <c r="E3025" s="10" t="s">
+        <v>9160</v>
+      </c>
+      <c r="F3025" s="10" t="s">
+        <v>9175</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3026" s="101"/>
+      <c r="B3026" s="94"/>
+      <c r="C3026" s="9" t="s">
+        <v>4564</v>
+      </c>
+      <c r="D3026" s="10" t="s">
+        <v>9144</v>
+      </c>
+      <c r="E3026" s="10" t="s">
+        <v>9161</v>
+      </c>
+      <c r="F3026" s="10" t="s">
+        <v>9176</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3027" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C3027" s="9">
+        <v>130</v>
+      </c>
+      <c r="D3027" s="10" t="s">
+        <v>9145</v>
+      </c>
+      <c r="E3027" s="10" t="s">
+        <v>9162</v>
+      </c>
+      <c r="F3027" s="10" t="s">
+        <v>9177</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3028" s="28"/>
+      <c r="C3028" s="9">
+        <v>133</v>
+      </c>
+      <c r="D3028" s="10" t="s">
+        <v>9146</v>
+      </c>
+      <c r="E3028" s="10" t="s">
+        <v>9163</v>
+      </c>
+      <c r="F3028" s="10" t="s">
+        <v>9178</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3029" s="28"/>
+      <c r="C3029" s="9">
+        <v>136</v>
+      </c>
+      <c r="D3029" s="10" t="s">
+        <v>9147</v>
+      </c>
+      <c r="E3029" s="10" t="s">
+        <v>9164</v>
+      </c>
+      <c r="F3029" s="10" t="s">
+        <v>9179</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3030" s="101"/>
+      <c r="B3030" s="94"/>
+      <c r="C3030" s="9" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D3030" s="10" t="s">
+        <v>9148</v>
+      </c>
+      <c r="E3030" s="10" t="s">
+        <v>9185</v>
+      </c>
+      <c r="F3030" s="10" t="s">
+        <v>9186</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3031" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C3031" s="9">
+        <v>168</v>
+      </c>
+      <c r="D3031" s="10" t="s">
+        <v>9149</v>
+      </c>
+      <c r="E3031" s="10" t="s">
+        <v>9165</v>
+      </c>
+      <c r="F3031" s="10" t="s">
+        <v>9180</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3032" s="28"/>
+      <c r="C3032" s="9">
+        <v>171</v>
+      </c>
+      <c r="D3032" s="10" t="s">
+        <v>9150</v>
+      </c>
+      <c r="E3032" s="10" t="s">
+        <v>9166</v>
+      </c>
+      <c r="F3032" s="10" t="s">
+        <v>9181</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3033" s="28"/>
+      <c r="C3033" s="9">
+        <v>174</v>
+      </c>
+      <c r="D3033" s="10" t="s">
+        <v>9151</v>
+      </c>
+      <c r="E3033" s="10" t="s">
+        <v>9167</v>
+      </c>
+      <c r="F3033" s="10" t="s">
+        <v>9182</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3034" s="29"/>
+      <c r="C3034" s="9">
+        <v>188</v>
+      </c>
+      <c r="D3034" s="10" t="s">
+        <v>9152</v>
+      </c>
+      <c r="E3034" s="10" t="s">
+        <v>9187</v>
+      </c>
+      <c r="F3034" s="10" t="s">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3035" s="28" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C3035" s="9">
+        <v>198</v>
+      </c>
+      <c r="D3035" s="10" t="s">
+        <v>9153</v>
+      </c>
+      <c r="E3035" s="10" t="s">
+        <v>9168</v>
+      </c>
+      <c r="F3035" s="10" t="s">
+        <v>9183</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3036" s="101"/>
+      <c r="B3036" s="94"/>
+      <c r="C3036" s="9" t="s">
+        <v>9189</v>
+      </c>
+      <c r="D3036" s="10" t="s">
+        <v>9190</v>
+      </c>
+      <c r="E3036" s="10" t="s">
+        <v>9084</v>
+      </c>
+      <c r="F3036" s="10" t="s">
+        <v>9191</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3037" s="89"/>
+      <c r="B3037" s="20"/>
+      <c r="C3037" s="20">
+        <v>223</v>
+      </c>
+      <c r="D3037" s="21" t="s">
+        <v>9154</v>
+      </c>
+      <c r="E3037" s="21" t="s">
+        <v>9169</v>
+      </c>
+      <c r="F3037" s="21" t="s">
+        <v>9184</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3038" s="30" t="s">
+        <v>9193</v>
+      </c>
+      <c r="B3038" s="9" t="s">
+        <v>9192</v>
+      </c>
+      <c r="C3038" s="9">
+        <v>58</v>
+      </c>
+      <c r="D3038" s="10" t="s">
+        <v>9194</v>
+      </c>
+      <c r="E3038" s="10" t="s">
+        <v>9226</v>
+      </c>
+      <c r="F3038" s="10" t="s">
+        <v>9256</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3039" s="101"/>
+      <c r="B3039" s="94"/>
+      <c r="C3039" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D3039" s="10" t="s">
+        <v>9195</v>
+      </c>
+      <c r="E3039" s="10" t="s">
+        <v>9227</v>
+      </c>
+      <c r="F3039" s="10" t="s">
+        <v>9257</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3040" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3040" s="9">
+        <v>99</v>
+      </c>
+      <c r="D3040" s="10" t="s">
+        <v>9196</v>
+      </c>
+      <c r="E3040" s="10" t="s">
+        <v>9228</v>
+      </c>
+      <c r="F3040" s="10" t="s">
+        <v>9258</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3041" s="28"/>
+      <c r="C3041" s="9">
+        <v>102</v>
+      </c>
+      <c r="D3041" s="10" t="s">
+        <v>9197</v>
+      </c>
+      <c r="E3041" s="10" t="s">
+        <v>9229</v>
+      </c>
+      <c r="F3041" s="10" t="s">
+        <v>9259</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3042" s="28"/>
+      <c r="C3042" s="9">
+        <v>105</v>
+      </c>
+      <c r="D3042" s="10" t="s">
+        <v>9198</v>
+      </c>
+      <c r="E3042" s="10" t="s">
+        <v>9230</v>
+      </c>
+      <c r="F3042" s="10" t="s">
+        <v>9260</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3043" s="28"/>
+      <c r="C3043" s="9">
+        <v>108</v>
+      </c>
+      <c r="D3043" s="10" t="s">
+        <v>9199</v>
+      </c>
+      <c r="E3043" s="10" t="s">
+        <v>9231</v>
+      </c>
+      <c r="F3043" s="10" t="s">
+        <v>9261</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3044" s="28"/>
+      <c r="C3044" s="9">
+        <v>131</v>
+      </c>
+      <c r="D3044" s="10" t="s">
+        <v>9202</v>
+      </c>
+      <c r="E3044" s="10" t="s">
+        <v>9232</v>
+      </c>
+      <c r="F3044" s="10" t="s">
+        <v>9262</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3045" s="28"/>
+      <c r="C3045" s="9">
+        <v>134</v>
+      </c>
+      <c r="D3045" s="10" t="s">
+        <v>9203</v>
+      </c>
+      <c r="E3045" s="10" t="s">
+        <v>9233</v>
+      </c>
+      <c r="F3045" s="10" t="s">
+        <v>9263</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3046" s="28"/>
+      <c r="C3046" s="9">
+        <v>137</v>
+      </c>
+      <c r="D3046" s="10" t="s">
+        <v>9200</v>
+      </c>
+      <c r="E3046" s="10" t="s">
+        <v>9234</v>
+      </c>
+      <c r="F3046" s="10" t="s">
+        <v>9264</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3047" s="28"/>
+      <c r="C3047" s="9">
+        <v>140</v>
+      </c>
+      <c r="D3047" s="10" t="s">
+        <v>9201</v>
+      </c>
+      <c r="E3047" s="10" t="s">
+        <v>9235</v>
+      </c>
+      <c r="F3047" s="10" t="s">
+        <v>9265</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3048" s="28"/>
+      <c r="C3048" s="9">
+        <v>148</v>
+      </c>
+      <c r="D3048" s="10" t="s">
+        <v>6250</v>
+      </c>
+      <c r="E3048" s="10" t="s">
+        <v>6367</v>
+      </c>
+      <c r="F3048" s="10" t="s">
+        <v>6457</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3049" s="101"/>
+      <c r="B3049" s="94"/>
+      <c r="C3049" s="9" t="s">
+        <v>6730</v>
+      </c>
+      <c r="D3049" s="10" t="s">
+        <v>9204</v>
+      </c>
+      <c r="E3049" s="10" t="s">
+        <v>9236</v>
+      </c>
+      <c r="F3049" s="10" t="s">
+        <v>9266</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3050" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3050" s="9">
+        <v>172</v>
+      </c>
+      <c r="D3050" s="10" t="s">
+        <v>9205</v>
+      </c>
+      <c r="E3050" s="10" t="s">
+        <v>9237</v>
+      </c>
+      <c r="F3050" s="10" t="s">
+        <v>9267</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3051" s="101"/>
+      <c r="B3051" s="94"/>
+      <c r="C3051" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D3051" s="10" t="s">
+        <v>9206</v>
+      </c>
+      <c r="E3051" s="10" t="s">
+        <v>9238</v>
+      </c>
+      <c r="F3051" s="10" t="s">
+        <v>9268</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3052" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3052" s="9">
+        <v>201</v>
+      </c>
+      <c r="D3052" s="10" t="s">
+        <v>9207</v>
+      </c>
+      <c r="E3052" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="F3052" s="10" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3053" s="28"/>
+      <c r="C3053" s="9">
+        <v>204</v>
+      </c>
+      <c r="D3053" s="10" t="s">
+        <v>9208</v>
+      </c>
+      <c r="E3053" s="10" t="s">
+        <v>9239</v>
+      </c>
+      <c r="F3053" s="10" t="s">
+        <v>9269</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3054" s="28"/>
+      <c r="C3054" s="9">
+        <v>207</v>
+      </c>
+      <c r="D3054" s="10" t="s">
+        <v>9209</v>
+      </c>
+      <c r="E3054" s="10" t="s">
+        <v>9240</v>
+      </c>
+      <c r="F3054" s="10" t="s">
+        <v>9270</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3055" s="28"/>
+      <c r="C3055" s="9">
+        <v>224</v>
+      </c>
+      <c r="D3055" s="10" t="s">
+        <v>9210</v>
+      </c>
+      <c r="E3055" s="10" t="s">
+        <v>9241</v>
+      </c>
+      <c r="F3055" s="10" t="s">
+        <v>9271</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3056" s="28"/>
+      <c r="C3056" s="9">
+        <v>227</v>
+      </c>
+      <c r="D3056" s="10" t="s">
+        <v>9211</v>
+      </c>
+      <c r="E3056" s="10" t="s">
+        <v>9242</v>
+      </c>
+      <c r="F3056" s="10" t="s">
+        <v>9272</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3057" s="28"/>
+      <c r="C3057" s="9">
+        <v>230</v>
+      </c>
+      <c r="D3057" s="10" t="s">
+        <v>9212</v>
+      </c>
+      <c r="E3057" s="10" t="s">
+        <v>9243</v>
+      </c>
+      <c r="F3057" s="10" t="s">
+        <v>9273</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3058" s="28"/>
+      <c r="C3058" s="9">
+        <v>233</v>
+      </c>
+      <c r="D3058" s="10" t="s">
+        <v>9213</v>
+      </c>
+      <c r="E3058" s="10" t="s">
+        <v>9244</v>
+      </c>
+      <c r="F3058" s="10" t="s">
+        <v>9274</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3059" s="28"/>
+      <c r="C3059" s="9">
+        <v>236</v>
+      </c>
+      <c r="D3059" s="10" t="s">
+        <v>9214</v>
+      </c>
+      <c r="E3059" s="10" t="s">
+        <v>9245</v>
+      </c>
+      <c r="F3059" s="10" t="s">
+        <v>9275</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3060" s="28"/>
+      <c r="C3060" s="9">
+        <v>239</v>
+      </c>
+      <c r="D3060" s="10" t="s">
+        <v>9215</v>
+      </c>
+      <c r="E3060" s="10" t="s">
+        <v>9246</v>
+      </c>
+      <c r="F3060" s="10" t="s">
+        <v>9276</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3061" s="28"/>
+      <c r="C3061" s="9">
+        <v>242</v>
+      </c>
+      <c r="D3061" s="10" t="s">
+        <v>9216</v>
+      </c>
+      <c r="E3061" s="10" t="s">
+        <v>9247</v>
+      </c>
+      <c r="F3061" s="10" t="s">
+        <v>9277</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3062" s="28"/>
+      <c r="C3062" s="9">
+        <v>245</v>
+      </c>
+      <c r="D3062" s="10" t="s">
+        <v>9217</v>
+      </c>
+      <c r="E3062" s="10" t="s">
+        <v>9248</v>
+      </c>
+      <c r="F3062" s="10" t="s">
+        <v>9278</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A3063" s="28"/>
+      <c r="C3063" s="9">
+        <v>248</v>
+      </c>
+      <c r="D3063" s="10" t="s">
+        <v>9218</v>
+      </c>
+      <c r="E3063" s="10" t="s">
+        <v>9249</v>
+      </c>
+      <c r="F3063" s="10" t="s">
+        <v>9279</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3064" s="101"/>
+      <c r="B3064" s="94"/>
+      <c r="C3064" s="9" t="s">
+        <v>6888</v>
+      </c>
+      <c r="D3064" s="10" t="s">
+        <v>9219</v>
+      </c>
+      <c r="E3064" s="10" t="s">
+        <v>9250</v>
+      </c>
+      <c r="F3064" s="10" t="s">
+        <v>9280</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3065" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3065" s="9">
+        <v>286</v>
+      </c>
+      <c r="D3065" s="10" t="s">
+        <v>9220</v>
+      </c>
+      <c r="E3065" s="10" t="s">
+        <v>9251</v>
+      </c>
+      <c r="F3065" s="10" t="s">
+        <v>9281</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3066" s="28"/>
+      <c r="C3066" s="9">
+        <v>289</v>
+      </c>
+      <c r="D3066" s="10" t="s">
+        <v>9221</v>
+      </c>
+      <c r="E3066" s="10" t="s">
+        <v>9252</v>
+      </c>
+      <c r="F3066" s="10" t="s">
+        <v>9282</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A3067" s="28"/>
+      <c r="C3067" s="9">
+        <v>292</v>
+      </c>
+      <c r="D3067" s="10" t="s">
+        <v>9222</v>
+      </c>
+      <c r="E3067" s="10" t="s">
+        <v>9253</v>
+      </c>
+      <c r="F3067" s="10" t="s">
+        <v>9283</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+      <c r="A3068" s="28"/>
+      <c r="C3068" s="9">
+        <v>295</v>
+      </c>
+      <c r="D3068" s="10" t="s">
+        <v>9223</v>
+      </c>
+      <c r="E3068" s="10" t="s">
+        <v>9254</v>
+      </c>
+      <c r="F3068" s="10" t="s">
+        <v>9284</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3069" s="28"/>
+      <c r="C3069" s="9">
+        <v>307</v>
+      </c>
+      <c r="D3069" s="10" t="s">
+        <v>9224</v>
+      </c>
+      <c r="E3069" s="10" t="s">
+        <v>9255</v>
+      </c>
+      <c r="F3069" s="10" t="s">
+        <v>9285</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3070" s="28"/>
+      <c r="C3070" s="9">
+        <v>310</v>
+      </c>
+      <c r="D3070" s="10" t="s">
+        <v>9225</v>
+      </c>
+      <c r="E3070" s="10" t="s">
+        <v>4171</v>
+      </c>
+      <c r="F3070" s="10" t="s">
+        <v>4181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
